--- a/node/simplyread-server/data/master.xlsx
+++ b/node/simplyread-server/data/master.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="20010" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="books" sheetId="1" r:id="rId1"/>
+    <sheet name="categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>isbn</t>
   </si>
@@ -33,9 +32,6 @@
     <t>我在故宮修文物</t>
   </si>
   <si>
-    <t>社科</t>
-  </si>
-  <si>
     <t>9888365797</t>
   </si>
   <si>
@@ -108,13 +104,49 @@
     <t>9789624575316</t>
   </si>
   <si>
-    <t>宗教</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
     <t>基道書樓</t>
+  </si>
+  <si>
+    <t>商管理財</t>
+  </si>
+  <si>
+    <t>社會科學</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>20170922</t>
+  </si>
+  <si>
+    <t>流行文學</t>
+  </si>
+  <si>
+    <t>心理勵志</t>
+  </si>
+  <si>
+    <t>飲食文化</t>
+  </si>
+  <si>
+    <t>旅遊天地</t>
+  </si>
+  <si>
+    <t>生活趣味</t>
+  </si>
+  <si>
+    <t>養生保健</t>
+  </si>
+  <si>
+    <t>兒童圖書</t>
+  </si>
+  <si>
+    <t>宗教哲學</t>
+  </si>
+  <si>
+    <t>親子教育</t>
   </si>
 </sst>
 </file>
@@ -454,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -470,7 +502,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,213 +513,318 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>categories!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/node/simplyread-server/data/master.xlsx
+++ b/node/simplyread-server/data/master.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20010" windowHeight="8340"/>
+    <workbookView xWindow="6280" yWindow="1200" windowWidth="20020" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="161">
   <si>
     <t>isbn</t>
   </si>
@@ -116,9 +121,6 @@
     <t>社會科學</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>20170922</t>
   </si>
   <si>
@@ -147,16 +149,391 @@
   </si>
   <si>
     <t>親子教育</t>
+  </si>
+  <si>
+    <t>中国大历史</t>
+  </si>
+  <si>
+    <t>万历十五年</t>
+  </si>
+  <si>
+    <t>黄河青山——黄仁宇回忆录</t>
+  </si>
+  <si>
+    <t>地北天南叙古今</t>
+  </si>
+  <si>
+    <t>股票操作学（第二版）</t>
+  </si>
+  <si>
+    <t>关系千万重</t>
+  </si>
+  <si>
+    <t>进化新篇章</t>
+  </si>
+  <si>
+    <t>文化苦旅</t>
+  </si>
+  <si>
+    <t>图雅的涂鸦</t>
+  </si>
+  <si>
+    <t>赫逊河畔谈中国历史</t>
+  </si>
+  <si>
+    <t>张五常作品系列（第一辑）（共三册）</t>
+  </si>
+  <si>
+    <t>霜冷长河</t>
+  </si>
+  <si>
+    <t>我们仨</t>
+  </si>
+  <si>
+    <t>千年一叹</t>
+  </si>
+  <si>
+    <t>资本主义与二十一世纪</t>
+  </si>
+  <si>
+    <t>富萍</t>
+  </si>
+  <si>
+    <t>行者无疆</t>
+  </si>
+  <si>
+    <t>西游记（绘画本）</t>
+  </si>
+  <si>
+    <t>池莉文集7：惊世之作</t>
+  </si>
+  <si>
+    <t>沈从文经典</t>
+  </si>
+  <si>
+    <t>长恨歌</t>
+  </si>
+  <si>
+    <t>脂砚斋重评石头记甲戌校本</t>
+  </si>
+  <si>
+    <t>方舟在线</t>
+  </si>
+  <si>
+    <t>围城</t>
+  </si>
+  <si>
+    <t>张爱玲文集</t>
+  </si>
+  <si>
+    <t>水与火的缠绵</t>
+  </si>
+  <si>
+    <t>山居笔记</t>
+  </si>
+  <si>
+    <t>庄子浅说</t>
+  </si>
+  <si>
+    <t>三国演义（绘画本）</t>
+  </si>
+  <si>
+    <t>放宽历史的视界</t>
+  </si>
+  <si>
+    <t>无知者无畏</t>
+  </si>
+  <si>
+    <t>饥饿的女儿</t>
+  </si>
+  <si>
+    <t>鲁迅与我七十年</t>
+  </si>
+  <si>
+    <t>新华字典（第10版）</t>
+  </si>
+  <si>
+    <t>陈寅恪集·柳如是别传（上、中、下）</t>
+  </si>
+  <si>
+    <t>管锥编（全五册）</t>
+  </si>
+  <si>
+    <t>现代化的陷阱——当代中国的经济社会问题</t>
+  </si>
+  <si>
+    <t>音乐入门</t>
+  </si>
+  <si>
+    <t>北京城杂忆</t>
+  </si>
+  <si>
+    <t>肚大能容：中国饮食文化散记</t>
+  </si>
+  <si>
+    <t>红楼小讲</t>
+  </si>
+  <si>
+    <t>上海的风花雪月</t>
+  </si>
+  <si>
+    <t>《小说选刊》金榜小说　中篇卷（上、下）</t>
+  </si>
+  <si>
+    <t>禅宗与道家</t>
+  </si>
+  <si>
+    <t>池莉文集6：致无尽岁月</t>
+  </si>
+  <si>
+    <t>生活的艺术</t>
+  </si>
+  <si>
+    <t>尘埃落定</t>
+  </si>
+  <si>
+    <t>读词常识</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>国史新论</t>
+  </si>
+  <si>
+    <t>有了快感你就喊</t>
+  </si>
+  <si>
+    <t>哈佛女孩　刘亦婷／素质培养纪实</t>
+  </si>
+  <si>
+    <t>水浒传（绘画本）</t>
+  </si>
+  <si>
+    <t>蔡志忠中国古籍经典漫画（珍藏版）</t>
+  </si>
+  <si>
+    <t>无字（全三册）</t>
+  </si>
+  <si>
+    <t>《小说月报》第七届百花奖获奖作品集</t>
+  </si>
+  <si>
+    <t>资治通鉴（全二册）</t>
+  </si>
+  <si>
+    <t>三恋</t>
+  </si>
+  <si>
+    <t>时间简史——从大爆炸到黑洞（10年修订本）</t>
+  </si>
+  <si>
+    <t>怎么爱你也不够</t>
+  </si>
+  <si>
+    <t>《小说选刊》金榜小说　短篇卷</t>
+  </si>
+  <si>
+    <t>上种红菱下种藕</t>
+  </si>
+  <si>
+    <t>三国演义（上、下）</t>
+  </si>
+  <si>
+    <t>现代汉语词典（修订本）</t>
+  </si>
+  <si>
+    <t>谈艺录（补订本）</t>
+  </si>
+  <si>
+    <t>陈寅恪集·寒柳堂集</t>
+  </si>
+  <si>
+    <t>杂忆与杂写</t>
+  </si>
+  <si>
+    <t>康熙大帝</t>
+  </si>
+  <si>
+    <t>我的精神家园——王小波杂文自选集</t>
+  </si>
+  <si>
+    <t>威尼斯日记</t>
+  </si>
+  <si>
+    <t>西方音乐的故事</t>
+  </si>
+  <si>
+    <t>说文解气</t>
+  </si>
+  <si>
+    <t>青铜时代</t>
+  </si>
+  <si>
+    <t>百年思索</t>
+  </si>
+  <si>
+    <t>溃疡：直面中国学术腐败</t>
+  </si>
+  <si>
+    <t>杨振宁文录：一位科学大师看人和这个世界</t>
+  </si>
+  <si>
+    <t>哈佛天才——用卡尔·威特法则培养出的哈佛孩子</t>
+  </si>
+  <si>
+    <t>跨过厚厚的大红门</t>
+  </si>
+  <si>
+    <t>唐浩明文集·曾国藩（共三册）</t>
+  </si>
+  <si>
+    <t>国史大纲（修订本全两册）</t>
+  </si>
+  <si>
+    <t>事林广记</t>
+  </si>
+  <si>
+    <t>周作人丰子恺儿童杂事诗图笺释</t>
+  </si>
+  <si>
+    <t>梓室余墨：陈从周随笔</t>
+  </si>
+  <si>
+    <t>历史研究（修订插图本）</t>
+  </si>
+  <si>
+    <t>我读我看</t>
+  </si>
+  <si>
+    <t>易经64卦384爻故事</t>
+  </si>
+  <si>
+    <t>今生今世——我的情感历程</t>
+  </si>
+  <si>
+    <t>GRE词汇精选</t>
+  </si>
+  <si>
+    <t>中国人史纲（上下）</t>
+  </si>
+  <si>
+    <t>胡适评传</t>
+  </si>
+  <si>
+    <t>俗世奇人</t>
+  </si>
+  <si>
+    <t>晚清的魅力</t>
+  </si>
+  <si>
+    <t>挪威的森林（全译本）</t>
+  </si>
+  <si>
+    <t>钱钟书散文</t>
+  </si>
+  <si>
+    <t>池莉文集5： 午夜起舞</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>沈从文作品精编</t>
+  </si>
+  <si>
+    <t>宋诗选注</t>
+  </si>
+  <si>
+    <t>金庸作品集（新版·12种36册）</t>
+  </si>
+  <si>
+    <t>榆下说书</t>
+  </si>
+  <si>
+    <t>710800982X</t>
+  </si>
+  <si>
+    <t>753553354x</t>
+  </si>
+  <si>
+    <t>750631889X</t>
+  </si>
+  <si>
+    <t>750631942X</t>
+  </si>
+  <si>
+    <t>753063075X</t>
+  </si>
+  <si>
+    <t>7535710654b</t>
+  </si>
+  <si>
+    <t>710100377X</t>
+  </si>
+  <si>
+    <t>754430048X</t>
+  </si>
+  <si>
+    <t>780151419X</t>
+  </si>
+  <si>
+    <t>780676156X</t>
+  </si>
+  <si>
+    <t>720803849X</t>
+  </si>
+  <si>
+    <t>750571550X</t>
+  </si>
+  <si>
+    <t>753063139X</t>
+  </si>
+  <si>
+    <t>753390995X</t>
+  </si>
+  <si>
+    <t>20170923</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>汉林书城</t>
+  </si>
+  <si>
+    <t>7108010364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,15 +555,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,23 +915,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +945,10 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,10 +959,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,13 +984,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -569,16 +998,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -586,16 +1015,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -603,16 +1032,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -620,16 +1049,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -637,16 +1066,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -654,16 +1083,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -671,16 +1100,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -688,16 +1117,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -705,16 +1134,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -722,17 +1151,1418 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>7108015412</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>7108014572</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>7500054459</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>7108014580</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>7806272011</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>7800288447</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>7108004496</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>7801495519</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>7506316501</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>7108018802</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>7108009153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>7540424222</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>7801423844</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>7532216462</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>7539915145</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>7544216381</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>7506309572</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>7506320207</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>7810457020</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>7020024750</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>7539605952</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>7801423968</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>7805315744</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>7108012073</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>7532214087</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>7108014696</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4">
+        <v>7531322013</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>7541118699</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>7544219569</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>7100039312</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4">
+        <v>7108009455</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4">
+        <v>7101007473</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4">
+        <v>7507209083</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4">
+        <v>7540426071</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4">
+        <v>7108013525</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4">
+        <v>7108017105</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4">
+        <v>7200044822</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4">
+        <v>7506314185</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4">
+        <v>7540725869</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4">
+        <v>7309016629</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4">
+        <v>7539912375</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4">
+        <v>7801423089</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4">
+        <v>7020033644</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4">
+        <v>7101022618</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4">
+        <v>7108002175</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4">
+        <v>7108015358</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4">
+        <v>7500649401</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4">
+        <v>7532216950</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4">
+        <v>7108013835</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4">
+        <v>7530206370</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4">
+        <v>7532503445</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4">
+        <v>7533914562</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="4">
+        <v>7539913665</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4">
+        <v>7540725850</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4">
+        <v>7544220370</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="4">
+        <v>7020008720</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4">
+        <v>7100017777</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4">
+        <v>7108009382</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4">
+        <v>7108013606</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4">
+        <v>7535421016</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4">
+        <v>7503915862</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4">
+        <v>7506312905</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4">
+        <v>7530633465</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4">
+        <v>7532123189</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4">
+        <v>7500646712</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4">
+        <v>7544217973</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4">
+        <v>7544304825</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4">
+        <v>7020037704</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4">
+        <v>7100017661</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4">
+        <v>7101020097</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4">
+        <v>7101021034</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4">
+        <v>7108012723</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4">
+        <v>7208033986</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4">
+        <v>7220042892</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4">
+        <v>7500438842</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4">
+        <v>7501157766</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4">
+        <v>7505707663</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4">
+        <v>7506318776</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4">
+        <v>7532725693</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="4">
+        <v>7539912367</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4">
+        <v>7539914645</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="4">
+        <v>7540728310</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4">
+        <v>7020036112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="5">
+        <v>780655808</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4">
+        <v>7108010313</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -743,6 +2573,9 @@
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -756,75 +2589,80 @@
       <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/node/simplyread-server/data/master.xlsx
+++ b/node/simplyread-server/data/master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="813">
   <si>
     <t>isbn</t>
   </si>
@@ -503,13 +503,1969 @@
   </si>
   <si>
     <t>7108010364</t>
+  </si>
+  <si>
+    <t>兰台万卷：读《汉书·艺文志》</t>
+  </si>
+  <si>
+    <t>现代医学的偶然发现</t>
+  </si>
+  <si>
+    <t>图像中国建筑史</t>
+  </si>
+  <si>
+    <t>中国建筑史</t>
+  </si>
+  <si>
+    <t>中国古船图谱：修订版</t>
+  </si>
+  <si>
+    <t>中国的可持续发展：挑战与未来</t>
+  </si>
+  <si>
+    <t>继承与叛逆 现代科学为何出现于西方：上下，中国文库，科技文化类</t>
+  </si>
+  <si>
+    <t>迎接美妙新世纪：期待与疑惑</t>
+  </si>
+  <si>
+    <t>游观：中国古典绘画空间本体诠释</t>
+  </si>
+  <si>
+    <t>我与我的世界 浮过了生命海：曹聚仁回忆录，1900-1972</t>
+  </si>
+  <si>
+    <t>重新发现制度：政治的组织基础</t>
+  </si>
+  <si>
+    <t>祖先与永恒：杰西卡·罗森中国考古艺术文集</t>
+  </si>
+  <si>
+    <t>时尚的精髓：法国路易十四时代的优雅品味及奢侈生活</t>
+  </si>
+  <si>
+    <t>伟大的指挥家</t>
+  </si>
+  <si>
+    <t>巴厘巴厘：一个中国人的30次巴厘岛之行</t>
+  </si>
+  <si>
+    <t>昨天的故事：关于重写文学史</t>
+  </si>
+  <si>
+    <t>审美基础</t>
+  </si>
+  <si>
+    <t>中古中国与外来文明：三联文史新论</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>摄影艺术论：中国艺术科学总论</t>
+  </si>
+  <si>
+    <t>中国摄影艺术史  中国艺术科学总论</t>
+  </si>
+  <si>
+    <t>吴宓书信集：人文读本</t>
+  </si>
+  <si>
+    <t>大背叛：科学中的欺诈</t>
+  </si>
+  <si>
+    <t>杨振宁传</t>
+  </si>
+  <si>
+    <t>老北京杂吧地：天桥的记忆与诠释</t>
+  </si>
+  <si>
+    <t>文学与神明：饶宗颐访谈录</t>
+  </si>
+  <si>
+    <t>中国的公与私：公私</t>
+  </si>
+  <si>
+    <t>高绩效团队领导者行为及其作用机制</t>
+  </si>
+  <si>
+    <t>陕西博物馆</t>
+  </si>
+  <si>
+    <t>世博华彩</t>
+  </si>
+  <si>
+    <t>鲁迅箴言：中日双语</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>演讲与论文集</t>
+  </si>
+  <si>
+    <t>万水朝东：中国政党制度全景</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
+  </si>
+  <si>
+    <t>革命的标记</t>
+  </si>
+  <si>
+    <t>图文哲学101句</t>
+  </si>
+  <si>
+    <t>中国人问题与犹太人问题</t>
+  </si>
+  <si>
+    <t>新闻丛谈：增编本</t>
+  </si>
+  <si>
+    <t>电影X音乐</t>
+  </si>
+  <si>
+    <t>寻归荒野</t>
+  </si>
+  <si>
+    <t>基督徒的生活</t>
+  </si>
+  <si>
+    <t>巴厘岛和龙目岛</t>
+  </si>
+  <si>
+    <t>韬奋文录</t>
+  </si>
+  <si>
+    <t>台湾通史：全2册</t>
+  </si>
+  <si>
+    <t>文坛五十年：正编 续编</t>
+  </si>
+  <si>
+    <t>西学东渐记</t>
+  </si>
+  <si>
+    <t>中国历史通论</t>
+  </si>
+  <si>
+    <t>中国报学史</t>
+  </si>
+  <si>
+    <t>人人身上都是一个时代</t>
+  </si>
+  <si>
+    <t>四川和重庆</t>
+  </si>
+  <si>
+    <t>我怎样毁了我的一生</t>
+  </si>
+  <si>
+    <t>人·群：小O的人群生活手记</t>
+  </si>
+  <si>
+    <t>书痴范用</t>
+  </si>
+  <si>
+    <t>殉道史</t>
+  </si>
+  <si>
+    <t>中国雕塑史</t>
+  </si>
+  <si>
+    <t>温迪嬷嬷讲述绘画的故事：修订袖珍版</t>
+  </si>
+  <si>
+    <t>与祖师同行</t>
+  </si>
+  <si>
+    <t>王蒙演讲录</t>
+  </si>
+  <si>
+    <t>王蒙谈话录</t>
+  </si>
+  <si>
+    <t>游观美国</t>
+  </si>
+  <si>
+    <t>宋明理学：陈来学术论著集</t>
+  </si>
+  <si>
+    <t>鲁迅评传：修订版</t>
+  </si>
+  <si>
+    <t>爱情定则：现代中国第一次爱情大讨论</t>
+  </si>
+  <si>
+    <t>话题2010</t>
+  </si>
+  <si>
+    <t>解码西方名画</t>
+  </si>
+  <si>
+    <t>鲁迅年谱：校注本</t>
+  </si>
+  <si>
+    <t>假装读过</t>
+  </si>
+  <si>
+    <t>超越者</t>
+  </si>
+  <si>
+    <t>品牌与品质</t>
+  </si>
+  <si>
+    <t>小小不列癫</t>
+  </si>
+  <si>
+    <t>隐匿的现场</t>
+  </si>
+  <si>
+    <t>钱理群中学讲鲁迅</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>朱子书信编年考证：增订本</t>
+  </si>
+  <si>
+    <t>1000极致旅行体验</t>
+  </si>
+  <si>
+    <t>看诗不分明</t>
+  </si>
+  <si>
+    <t>锦绣河山</t>
+  </si>
+  <si>
+    <t>蒋勋的卢浮宫</t>
+  </si>
+  <si>
+    <t>细读《尼各马克伦理学》</t>
+  </si>
+  <si>
+    <t>追寻美之音符</t>
+  </si>
+  <si>
+    <t>八点钟的诺亚方舟</t>
+  </si>
+  <si>
+    <t>中世纪星空下</t>
+  </si>
+  <si>
+    <t>土司政治与族群历史：明代以后贵州都柳江上游地区研究</t>
+  </si>
+  <si>
+    <t>我在故宫看大门：传记与回忆</t>
+  </si>
+  <si>
+    <t>睡觉大师</t>
+  </si>
+  <si>
+    <t>汤用彤学记</t>
+  </si>
+  <si>
+    <t>新闻的审美传播</t>
+  </si>
+  <si>
+    <t>砚史</t>
+  </si>
+  <si>
+    <t>需求为王</t>
+  </si>
+  <si>
+    <t>花与舌头</t>
+  </si>
+  <si>
+    <t>中国图书定价制度研究</t>
+  </si>
+  <si>
+    <t>金刚师</t>
+  </si>
+  <si>
+    <t>艺林一枝：古美术文编，增订版</t>
+  </si>
+  <si>
+    <t>斐多：柏拉图对话录之一</t>
+  </si>
+  <si>
+    <t>宪益舅舅的最后十年：2000-2009</t>
+  </si>
+  <si>
+    <t>巨流河</t>
+  </si>
+  <si>
+    <t>东西之间的西藏问题：外二篇</t>
+  </si>
+  <si>
+    <t>河童家庭大不同</t>
+  </si>
+  <si>
+    <t>边走边啃腌萝卜：妹尾河童旅行笔记</t>
+  </si>
+  <si>
+    <t>走向开放的城市：宋代东京街市研究</t>
+  </si>
+  <si>
+    <t>跨文化对话：27辑</t>
+  </si>
+  <si>
+    <t>澳大利亚：中文第3版</t>
+  </si>
+  <si>
+    <t>夏威夷：中文第1版</t>
+  </si>
+  <si>
+    <t>往日杂稿 康复札记</t>
+  </si>
+  <si>
+    <t>中国名片：明清外销瓷探源与收藏</t>
+  </si>
+  <si>
+    <t>回到正统</t>
+  </si>
+  <si>
+    <t>寂聊集</t>
+  </si>
+  <si>
+    <t>中国文化史通释</t>
+  </si>
+  <si>
+    <t>圣经的故事</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>异教徒</t>
+  </si>
+  <si>
+    <t>中国传统的创造性转化：增订版</t>
+  </si>
+  <si>
+    <t>中国简帛书籍史</t>
+  </si>
+  <si>
+    <t>渐行渐远渐无书</t>
+  </si>
+  <si>
+    <t>一路走来一路读：增补本</t>
+  </si>
+  <si>
+    <t>巴比伦法的人本观：一个关于人本主义思想起源的研究</t>
+  </si>
+  <si>
+    <t>太平轮一九四九：增订版</t>
+  </si>
+  <si>
+    <t>亦神亦祖：粤西南信仰构建的社会史</t>
+  </si>
+  <si>
+    <t>田家英与小莽苍苍斋：增订本</t>
+  </si>
+  <si>
+    <t>八声甘州：西北万里寻祖记</t>
+  </si>
+  <si>
+    <t>马来西亚、新加坡和文莱：中文第2版</t>
+  </si>
+  <si>
+    <t>中欧：中文第2版</t>
+  </si>
+  <si>
+    <t>布衣：我的父亲孙犁</t>
+  </si>
+  <si>
+    <t>《读书》杂志2010年合订本：上下</t>
+  </si>
+  <si>
+    <t>我与八十年代</t>
+  </si>
+  <si>
+    <t>人小鬼大逛世界名校</t>
+  </si>
+  <si>
+    <t>金克木集：全8册</t>
+  </si>
+  <si>
+    <t>纸天堂：西方人与中国的历史纠缠</t>
+  </si>
+  <si>
+    <t>永远活在希特勒阴影下吗</t>
+  </si>
+  <si>
+    <t>绿色和平：一群生态主义者、记者和梦想家如何改变了这个世界</t>
+  </si>
+  <si>
+    <t>早年毛泽东：传记、史料与回忆</t>
+  </si>
+  <si>
+    <t>如实观照：开启向内的旅程</t>
+  </si>
+  <si>
+    <t>窥视厕所</t>
+  </si>
+  <si>
+    <t>白堠乡的故事：地域史脉络下的乡村社会建构</t>
+  </si>
+  <si>
+    <t>英国文化研究：事件与问题</t>
+  </si>
+  <si>
+    <t>思想东亚：朝鲜半岛视角的历史与实践</t>
+  </si>
+  <si>
+    <t>作为方法的中国：沟口雄三著作集</t>
+  </si>
+  <si>
+    <t>中国的冲击：沟口雄三著作集</t>
+  </si>
+  <si>
+    <t>中国前近代思想的屈折与展望：沟口雄三著作集</t>
+  </si>
+  <si>
+    <t>荒野上的蔷薇</t>
+  </si>
+  <si>
+    <t>超越死亡：恩宠与勇气</t>
+  </si>
+  <si>
+    <t>寻宝之旅：探访世界著名古董市集</t>
+  </si>
+  <si>
+    <t>酷日本</t>
+  </si>
+  <si>
+    <t>清华历史讲堂三编</t>
+  </si>
+  <si>
+    <t>欧洲摩登：美感与速度的现代记忆</t>
+  </si>
+  <si>
+    <t>步行者：一个画者对时光的记录</t>
+  </si>
+  <si>
+    <t>跨文化对话：28辑，怀旧与未来专号</t>
+  </si>
+  <si>
+    <t>必要的静默：世界电影音乐创作谈</t>
+  </si>
+  <si>
+    <t>假如没有文学史</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>辛亥年</t>
+  </si>
+  <si>
+    <t>黑色哈姆雷特</t>
+  </si>
+  <si>
+    <t>共感@东京</t>
+  </si>
+  <si>
+    <t>朱熹的历史世界：宋代士大夫政治文化的研究</t>
+  </si>
+  <si>
+    <t>观音的秘密</t>
+  </si>
+  <si>
+    <t>文人·诗学·武术</t>
+  </si>
+  <si>
+    <t>现代国家与民族建构：20世纪前期土耳其民族主义研究</t>
+  </si>
+  <si>
+    <t>忽然想到：画说·说画</t>
+  </si>
+  <si>
+    <t>治国与理财：公共预算与国家建设</t>
+  </si>
+  <si>
+    <t>周易经传美学通论</t>
+  </si>
+  <si>
+    <t>土语者：一个艺术家的生存境遇与情怀</t>
+  </si>
+  <si>
+    <t>漫画南传法句经</t>
+  </si>
+  <si>
+    <t>漫画北传法句经</t>
+  </si>
+  <si>
+    <t>儒家与启蒙：哲学会通视野下的当前中国思想</t>
+  </si>
+  <si>
+    <t>儒学地域化的近代形态：增订本</t>
+  </si>
+  <si>
+    <t>英国爸爸</t>
+  </si>
+  <si>
+    <t>馋了吗？想发脾气吗？去旅行吧！</t>
+  </si>
+  <si>
+    <t>在世界边缘的沉思：对社会发展模式的反省</t>
+  </si>
+  <si>
+    <t>徐铸成通讯游记选：修订版</t>
+  </si>
+  <si>
+    <t>徐铸成新闻评论集</t>
+  </si>
+  <si>
+    <t>一灯风雨：读书书人书话精粹</t>
+  </si>
+  <si>
+    <t>徐铸成新闻评论二集</t>
+  </si>
+  <si>
+    <t>多元范式下的明清思想研究</t>
+  </si>
+  <si>
+    <t>罗摩桥</t>
+  </si>
+  <si>
+    <t>日本：中文第2版</t>
+  </si>
+  <si>
+    <t>灵蛇之珠：《读书》笔谈精粹</t>
+  </si>
+  <si>
+    <t>马迭尔旅馆的枪声</t>
+  </si>
+  <si>
+    <t>花盼</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>希腊：中文第2版</t>
+  </si>
+  <si>
+    <t>小说坊八讲：香港浸会大学授课录</t>
+  </si>
+  <si>
+    <t>洪范评论：垄断与国有经济进退，第13辑</t>
+  </si>
+  <si>
+    <t>女人总是想太多</t>
+  </si>
+  <si>
+    <t>慢漫京都</t>
+  </si>
+  <si>
+    <t>悦读经典</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>治政与事君：吕坤《实证录》及其经世思想研究</t>
+  </si>
+  <si>
+    <t>寻归荒野：增订版</t>
+  </si>
+  <si>
+    <t>高悬的画布：不带理论的旅行</t>
+  </si>
+  <si>
+    <t>总有清风：地儿佛理散文选</t>
+  </si>
+  <si>
+    <t>拓跋史探：修订本</t>
+  </si>
+  <si>
+    <t>如何培养美感</t>
+  </si>
+  <si>
+    <t>花园：谈人之为人</t>
+  </si>
+  <si>
+    <t>天生是个审美的人</t>
+  </si>
+  <si>
+    <t>生于1968·童年</t>
+  </si>
+  <si>
+    <t>柬埔寨：中文第3版</t>
+  </si>
+  <si>
+    <t>近墨者黑</t>
+  </si>
+  <si>
+    <t>寻味英伦</t>
+  </si>
+  <si>
+    <t>水果猎人</t>
+  </si>
+  <si>
+    <t>财富的归宿：美国现代公益基金会述评，增订本</t>
+  </si>
+  <si>
+    <t>论小说十家：修订本</t>
+  </si>
+  <si>
+    <t>车记：亲历轿车中国30年</t>
+  </si>
+  <si>
+    <t>老饕续笔</t>
+  </si>
+  <si>
+    <t>一个古画乡的临终抢救</t>
+  </si>
+  <si>
+    <t>中国马克思主义艺术理论发展史</t>
+  </si>
+  <si>
+    <t>东南亚：中文第3版</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>意大利：中文第3版</t>
+  </si>
+  <si>
+    <t>《加拉太书》注释</t>
+  </si>
+  <si>
+    <t>星斗焕文章：《读书》美文精粹</t>
+  </si>
+  <si>
+    <t>文坛风云亲历记</t>
+  </si>
+  <si>
+    <t>何谓成功：艺术·名利</t>
+  </si>
+  <si>
+    <t>阮元《儒林传稿》研究</t>
+  </si>
+  <si>
+    <t>王阳明</t>
+  </si>
+  <si>
+    <t>咖啡机中的间谍：个人隐私的终结</t>
+  </si>
+  <si>
+    <t>我们为什么要谈东亚：状况中的政治与历史</t>
+  </si>
+  <si>
+    <t>猫马麻：家猫、街猫、流浪猫和守护天使的故事</t>
+  </si>
+  <si>
+    <t>曾有西风半点香</t>
+  </si>
+  <si>
+    <t>“诗言志”释</t>
+  </si>
+  <si>
+    <t>限制是天才的磨刀石：张继钢论艺术</t>
+  </si>
+  <si>
+    <t>姑妄言之</t>
+  </si>
+  <si>
+    <t>日本：我心中的花朵与伤疤</t>
+  </si>
+  <si>
+    <t>学艺微言</t>
+  </si>
+  <si>
+    <t>若能忘记</t>
+  </si>
+  <si>
+    <t>共和与经纶：熊十力《论六经》《正韩》辨证</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>甘肃和宁夏</t>
+  </si>
+  <si>
+    <t>话题2011</t>
+  </si>
+  <si>
+    <t>杨振宁传：增订版</t>
+  </si>
+  <si>
+    <t>潮人玩香港：20位香港名人亲身带路100个私藏好店</t>
+  </si>
+  <si>
+    <t>旧锦翻新样：《读书》文化艺术评论精粹</t>
+  </si>
+  <si>
+    <t>成长的烦恼</t>
+  </si>
+  <si>
+    <t>心的胜利</t>
+  </si>
+  <si>
+    <t>照亮心的阳光</t>
+  </si>
+  <si>
+    <t>教养与文明：日本通识教育小史</t>
+  </si>
+  <si>
+    <t>文明国家大学</t>
+  </si>
+  <si>
+    <t>泰国岛屿和海滩：中文第2版</t>
+  </si>
+  <si>
+    <t>美味之旅</t>
+  </si>
+  <si>
+    <t>对照记@1963</t>
+  </si>
+  <si>
+    <t>德国：中文第3版</t>
+  </si>
+  <si>
+    <t>我不原谅：一个90后对中国教育的批评和反思</t>
+  </si>
+  <si>
+    <t>刀下留人：志在行医的日子</t>
+  </si>
+  <si>
+    <t>画家生涯</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>雕塑美学</t>
+  </si>
+  <si>
+    <t>来燕榭文存二编</t>
+  </si>
+  <si>
+    <t>《读书》思想评论精粹：上，启蒙之星辰，1979-1994</t>
+  </si>
+  <si>
+    <t>《读书》思想评论精粹：下，现代的悖论，1995-2009</t>
+  </si>
+  <si>
+    <t>社会理论：现代性与本土化，苏国勋教授七十华诞暨叶启政教授荣休论文集</t>
+  </si>
+  <si>
+    <t>雷锋：1940-1962</t>
+  </si>
+  <si>
+    <t>漫画《经集》</t>
+  </si>
+  <si>
+    <t>漫画《四十二章经》</t>
+  </si>
+  <si>
+    <t>我的影的集</t>
+  </si>
+  <si>
+    <t>古今中西之争</t>
+  </si>
+  <si>
+    <t>两生两求</t>
+  </si>
+  <si>
+    <t>去趟民国：1912-1949年间的私人生活</t>
+  </si>
+  <si>
+    <t>西周史：增补2版</t>
+  </si>
+  <si>
+    <t>辛亥革命研究论文集：上下</t>
+  </si>
+  <si>
+    <t>中日现代演剧交流图史</t>
+  </si>
+  <si>
+    <t>戊戌变法史事考二集</t>
+  </si>
+  <si>
+    <t>那年夏天 ......</t>
+  </si>
+  <si>
+    <t>漫画彼岸之道</t>
+  </si>
+  <si>
+    <t>暴风雨的记忆：1965-1970年的北京四中</t>
+  </si>
+  <si>
+    <t>喜乐京都</t>
+  </si>
+  <si>
+    <t>城之影</t>
+  </si>
+  <si>
+    <t>利维坦的道德困境：早期现代政治哲学的问题与脉络</t>
+  </si>
+  <si>
+    <t>良知对抗暴力：卡斯特里奥对抗加尔文</t>
+  </si>
+  <si>
+    <t>权力的餐桌：从古希腊宴会到爱丽舍宫</t>
+  </si>
+  <si>
+    <t>走进生命的学问</t>
+  </si>
+  <si>
+    <t>叫魂：1768年中国妖术大恐慌</t>
+  </si>
+  <si>
+    <t>三十岁前的孙中山：翠亨、檀岛、香港，1866-1895</t>
+  </si>
+  <si>
+    <t>陈寅恪集：限量典藏版</t>
+  </si>
+  <si>
+    <t>千年繁华：京都的街巷人生</t>
+  </si>
+  <si>
+    <t>雅债：文徵明的社交性艺术</t>
+  </si>
+  <si>
+    <t>钱钟书集：限量典藏版</t>
+  </si>
+  <si>
+    <t>秋籁居琴课</t>
+  </si>
+  <si>
+    <t>聆听音乐：第5版，附光盘</t>
+  </si>
+  <si>
+    <t>日本公务员人事制度</t>
+  </si>
+  <si>
+    <t>中国文化的狂者精神</t>
+  </si>
+  <si>
+    <t>儒家文化研究：第4辑，心性论研究专号</t>
+  </si>
+  <si>
+    <t>品京都</t>
+  </si>
+  <si>
+    <t>禅-两刃相交</t>
+  </si>
+  <si>
+    <t>创世纪：传说与译注，修订版</t>
+  </si>
+  <si>
+    <t>法兰西政治模式：1789年至今公民社会与雅各宾主义的对立，第2辑</t>
+  </si>
+  <si>
+    <t>历史的星空</t>
+  </si>
+  <si>
+    <t>走出白色恐怖：增订版</t>
+  </si>
+  <si>
+    <t>为何知识分子不热衷自由主义</t>
+  </si>
+  <si>
+    <t>属国与自主之间：近代中朝关系与东亚的命运</t>
+  </si>
+  <si>
+    <t>洞穴奇案</t>
+  </si>
+  <si>
+    <t>普米森林：我和食物的故事</t>
+  </si>
+  <si>
+    <t>敬虔生活原理：《基督教要义》1536年版</t>
+  </si>
+  <si>
+    <t>论戴震与章学诚：清代中期学术思想史研究，增订本</t>
+  </si>
+  <si>
+    <t>现代危机与思想人物</t>
+  </si>
+  <si>
+    <t>现代儒学的回顾与展望</t>
+  </si>
+  <si>
+    <t>文史传统与文化重建</t>
+  </si>
+  <si>
+    <t>方以智晚节考：增订本</t>
+  </si>
+  <si>
+    <t>普京政治：俄罗斯，民主与权力</t>
+  </si>
+  <si>
+    <t>傅斯年：中国近代历史与政治中的个体生命</t>
+  </si>
+  <si>
+    <t>妇女与国际人权法：第三卷，走向赋权</t>
+  </si>
+  <si>
+    <t>常识的求知：张承志学术散文集</t>
+  </si>
+  <si>
+    <t>华北沦陷区日伪政权研究</t>
+  </si>
+  <si>
+    <t>城市中国的逻辑</t>
+  </si>
+  <si>
+    <t>法国制造：法国文化关键词100</t>
+  </si>
+  <si>
+    <t>《读书》2011年合订本：上下</t>
+  </si>
+  <si>
+    <t>美国新全球战略</t>
+  </si>
+  <si>
+    <t>红军：1934-1936</t>
+  </si>
+  <si>
+    <t>葡萄酒的奥秘</t>
+  </si>
+  <si>
+    <t>暴食江湖</t>
+  </si>
+  <si>
+    <t>茶可道</t>
+  </si>
+  <si>
+    <t>品味传奇：名人与美食的前世与今生，修订版</t>
+  </si>
+  <si>
+    <t>年夜饭的艺术</t>
+  </si>
+  <si>
+    <t>台湾味道</t>
+  </si>
+  <si>
+    <t>多重宇宙：一个世界太少了？</t>
+  </si>
+  <si>
+    <t>食桌情景</t>
+  </si>
+  <si>
+    <t>你吃对营养了吗？：营养学博士告诉你不可不知的营养迷思</t>
+  </si>
+  <si>
+    <t>发现粗食好味道：塘塘家的乐活饮食</t>
+  </si>
+  <si>
+    <t>健康冰激凌DIY：学会做78种美味健康的冰激凌</t>
+  </si>
+  <si>
+    <t>吃对五色蔬果：营养学博士教你认识植物营养素</t>
+  </si>
+  <si>
+    <t>传统与时尚：中西服饰风格解读</t>
+  </si>
+  <si>
+    <t>瘦不了的错误：营养学博士教你健康减肥不反弹</t>
+  </si>
+  <si>
+    <t>川味儿</t>
+  </si>
+  <si>
+    <t>品味传奇：Ⅱ，大唐风范与民国味儿</t>
+  </si>
+  <si>
+    <t>9787108035424</t>
+  </si>
+  <si>
+    <t>9787108036841</t>
+  </si>
+  <si>
+    <t>9787108032379</t>
+  </si>
+  <si>
+    <t>9787108033536</t>
+  </si>
+  <si>
+    <t>9787108033512</t>
+  </si>
+  <si>
+    <t>9787108037640</t>
+  </si>
+  <si>
+    <t>9787108037398</t>
+  </si>
+  <si>
+    <t>9787108035677</t>
+  </si>
+  <si>
+    <t>9787108035714</t>
+  </si>
+  <si>
+    <t>9787108035264</t>
+  </si>
+  <si>
+    <t>9787108035851</t>
+  </si>
+  <si>
+    <t>9787108035868</t>
+  </si>
+  <si>
+    <t>9787108034823</t>
+  </si>
+  <si>
+    <t>9787108035783</t>
+  </si>
+  <si>
+    <t>9787108035745</t>
+  </si>
+  <si>
+    <t>9787108035837</t>
+  </si>
+  <si>
+    <t>9787108035240</t>
+  </si>
+  <si>
+    <t>9787108035530</t>
+  </si>
+  <si>
+    <t>9787108035813</t>
+  </si>
+  <si>
+    <t>9787108033147</t>
+  </si>
+  <si>
+    <t>9787108033826</t>
+  </si>
+  <si>
+    <t>9787108035066</t>
+  </si>
+  <si>
+    <t>9787108035172</t>
+  </si>
+  <si>
+    <t>9787108035738</t>
+  </si>
+  <si>
+    <t>9787108035820</t>
+  </si>
+  <si>
+    <t>9787108036032</t>
+  </si>
+  <si>
+    <t>9787108036049</t>
+  </si>
+  <si>
+    <t>9787108036063</t>
+  </si>
+  <si>
+    <t>9787108036933</t>
+  </si>
+  <si>
+    <t>9787108036285</t>
+  </si>
+  <si>
+    <t>9787108036865</t>
+  </si>
+  <si>
+    <t>9787108036698</t>
+  </si>
+  <si>
+    <t>9787108036759</t>
+  </si>
+  <si>
+    <t>9787108023254</t>
+  </si>
+  <si>
+    <t>9787108037473</t>
+  </si>
+  <si>
+    <t>9787108036810</t>
+  </si>
+  <si>
+    <t>9787108037572</t>
+  </si>
+  <si>
+    <t>9787108037589</t>
+  </si>
+  <si>
+    <t>9787108037718</t>
+  </si>
+  <si>
+    <t>9787108037817</t>
+  </si>
+  <si>
+    <t>9787108037510</t>
+  </si>
+  <si>
+    <t>9787108037824</t>
+  </si>
+  <si>
+    <t>9787108038470</t>
+  </si>
+  <si>
+    <t>9787108038418</t>
+  </si>
+  <si>
+    <t>9787108037350</t>
+  </si>
+  <si>
+    <t>9787108037367</t>
+  </si>
+  <si>
+    <t>9787108037428</t>
+  </si>
+  <si>
+    <t>9787108037435</t>
+  </si>
+  <si>
+    <t>9787108039798</t>
+  </si>
+  <si>
+    <t>9787108037343</t>
+  </si>
+  <si>
+    <t>9787108035097</t>
+  </si>
+  <si>
+    <t>9787108034441</t>
+  </si>
+  <si>
+    <t>9787108035226</t>
+  </si>
+  <si>
+    <t>9787108035356</t>
+  </si>
+  <si>
+    <t>9787108036254</t>
+  </si>
+  <si>
+    <t>9787108036292</t>
+  </si>
+  <si>
+    <t>9787108032546</t>
+  </si>
+  <si>
+    <t>9787108033376</t>
+  </si>
+  <si>
+    <t>9787108035080</t>
+  </si>
+  <si>
+    <t>9787108035882</t>
+  </si>
+  <si>
+    <t>9787108035875</t>
+  </si>
+  <si>
+    <t>9787108035455</t>
+  </si>
+  <si>
+    <t>9787108035769</t>
+  </si>
+  <si>
+    <t>9787108035448</t>
+  </si>
+  <si>
+    <t>9787108035691</t>
+  </si>
+  <si>
+    <t>9787108036278</t>
+  </si>
+  <si>
+    <t>9787108034946</t>
+  </si>
+  <si>
+    <t>9787108035462</t>
+  </si>
+  <si>
+    <t>9787108036155</t>
+  </si>
+  <si>
+    <t>9787108036162</t>
+  </si>
+  <si>
+    <t>9787108036179</t>
+  </si>
+  <si>
+    <t>9787108036186</t>
+  </si>
+  <si>
+    <t>9787108036193</t>
+  </si>
+  <si>
+    <t>9787108035721</t>
+  </si>
+  <si>
+    <t>9787108035936</t>
+  </si>
+  <si>
+    <t>9787108036377</t>
+  </si>
+  <si>
+    <t>9787108036247</t>
+  </si>
+  <si>
+    <t>9787108036117</t>
+  </si>
+  <si>
+    <t>9787108034762</t>
+  </si>
+  <si>
+    <t>9787108035509</t>
+  </si>
+  <si>
+    <t>9787108036490</t>
+  </si>
+  <si>
+    <t>9787108035912</t>
+  </si>
+  <si>
+    <t>9787108035219</t>
+  </si>
+  <si>
+    <t>9787108035394</t>
+  </si>
+  <si>
+    <t>9787108036018</t>
+  </si>
+  <si>
+    <t>9787108036094</t>
+  </si>
+  <si>
+    <t>9787108036339</t>
+  </si>
+  <si>
+    <t>9787108036353</t>
+  </si>
+  <si>
+    <t>9787108036384</t>
+  </si>
+  <si>
+    <t>9787108036605</t>
+  </si>
+  <si>
+    <t>9787108036636</t>
+  </si>
+  <si>
+    <t>9787108036643</t>
+  </si>
+  <si>
+    <t>9787108036872</t>
+  </si>
+  <si>
+    <t>9787108035684</t>
+  </si>
+  <si>
+    <t>9787108031167</t>
+  </si>
+  <si>
+    <t>9787108036001</t>
+  </si>
+  <si>
+    <t>9787108036438</t>
+  </si>
+  <si>
+    <t>9787108035561</t>
+  </si>
+  <si>
+    <t>9787108035639</t>
+  </si>
+  <si>
+    <t>9787108035776</t>
+  </si>
+  <si>
+    <t>9787108035905</t>
+  </si>
+  <si>
+    <t>9787108036070</t>
+  </si>
+  <si>
+    <t>9787108035974</t>
+  </si>
+  <si>
+    <t>9787108036223</t>
+  </si>
+  <si>
+    <t>9787108036537</t>
+  </si>
+  <si>
+    <t>9787108036551</t>
+  </si>
+  <si>
+    <t>9787108036797</t>
+  </si>
+  <si>
+    <t>9787108036780</t>
+  </si>
+  <si>
+    <t>9787108037015</t>
+  </si>
+  <si>
+    <t>9787108035998</t>
+  </si>
+  <si>
+    <t>9787108036346</t>
+  </si>
+  <si>
+    <t>9787108036452</t>
+  </si>
+  <si>
+    <t>9787108036919</t>
+  </si>
+  <si>
+    <t>9787108035257</t>
+  </si>
+  <si>
+    <t>9787108035349</t>
+  </si>
+  <si>
+    <t>9787108036483</t>
+  </si>
+  <si>
+    <t>9787108036582</t>
+  </si>
+  <si>
+    <t>9787108036629</t>
+  </si>
+  <si>
+    <t>9787108037114</t>
+  </si>
+  <si>
+    <t>9787108036216</t>
+  </si>
+  <si>
+    <t>9787108036568</t>
+  </si>
+  <si>
+    <t>9787108036575</t>
+  </si>
+  <si>
+    <t>9787108036704</t>
+  </si>
+  <si>
+    <t>9787108036971</t>
+  </si>
+  <si>
+    <t>9787108036995</t>
+  </si>
+  <si>
+    <t>9787108037022</t>
+  </si>
+  <si>
+    <t>9787108037213</t>
+  </si>
+  <si>
+    <t>9787108037121</t>
+  </si>
+  <si>
+    <t>9787108034960</t>
+  </si>
+  <si>
+    <t>9787108036087</t>
+  </si>
+  <si>
+    <t>9787108036407</t>
+  </si>
+  <si>
+    <t>9787108036421</t>
+  </si>
+  <si>
+    <t>9787108037503</t>
+  </si>
+  <si>
+    <t>9787108036261</t>
+  </si>
+  <si>
+    <t>9787108036414</t>
+  </si>
+  <si>
+    <t>9787108036773</t>
+  </si>
+  <si>
+    <t>9787108036896</t>
+  </si>
+  <si>
+    <t>9787108035981</t>
+  </si>
+  <si>
+    <t>9787108036056</t>
+  </si>
+  <si>
+    <t>9787108036230</t>
+  </si>
+  <si>
+    <t>9787108036612</t>
+  </si>
+  <si>
+    <t>9787108036902</t>
+  </si>
+  <si>
+    <t>9787108023759</t>
+  </si>
+  <si>
+    <t>9787108036124</t>
+  </si>
+  <si>
+    <t>9787108036520</t>
+  </si>
+  <si>
+    <t>9787108036742</t>
+  </si>
+  <si>
+    <t>9787108037251</t>
+  </si>
+  <si>
+    <t>9787108037558</t>
+  </si>
+  <si>
+    <t>9787108037633</t>
+  </si>
+  <si>
+    <t>9787108036445</t>
+  </si>
+  <si>
+    <t>9787108037183</t>
+  </si>
+  <si>
+    <t>9787108037671</t>
+  </si>
+  <si>
+    <t>9787108037794</t>
+  </si>
+  <si>
+    <t>9787108036926</t>
+  </si>
+  <si>
+    <t>9787108036940</t>
+  </si>
+  <si>
+    <t>9787108037008</t>
+  </si>
+  <si>
+    <t>9787108037107</t>
+  </si>
+  <si>
+    <t>9787108037169</t>
+  </si>
+  <si>
+    <t>9787108037206</t>
+  </si>
+  <si>
+    <t>9787108037275</t>
+  </si>
+  <si>
+    <t>9787108037282</t>
+  </si>
+  <si>
+    <t>9787108037770</t>
+  </si>
+  <si>
+    <t>9787108037855</t>
+  </si>
+  <si>
+    <t>9787108037480</t>
+  </si>
+  <si>
+    <t>9787108037497</t>
+  </si>
+  <si>
+    <t>9787108037893</t>
+  </si>
+  <si>
+    <t>9787108036544</t>
+  </si>
+  <si>
+    <t>9787108036674</t>
+  </si>
+  <si>
+    <t>9787108036858</t>
+  </si>
+  <si>
+    <t>9787108036957</t>
+  </si>
+  <si>
+    <t>9787108037145</t>
+  </si>
+  <si>
+    <t>9787108037268</t>
+  </si>
+  <si>
+    <t>9787108037565</t>
+  </si>
+  <si>
+    <t>9787108037596</t>
+  </si>
+  <si>
+    <t>9787108036766</t>
+  </si>
+  <si>
+    <t>9787108038098</t>
+  </si>
+  <si>
+    <t>9787108037305</t>
+  </si>
+  <si>
+    <t>9787108037602</t>
+  </si>
+  <si>
+    <t>9787108038234</t>
+  </si>
+  <si>
+    <t>9787108036711</t>
+  </si>
+  <si>
+    <t>9787108036964</t>
+  </si>
+  <si>
+    <t>9787108037688</t>
+  </si>
+  <si>
+    <t>9787108037756</t>
+  </si>
+  <si>
+    <t>9787108037152</t>
+  </si>
+  <si>
+    <t>9787108037176</t>
+  </si>
+  <si>
+    <t>9787108037237</t>
+  </si>
+  <si>
+    <t>9787108037664</t>
+  </si>
+  <si>
+    <t>9787108037862</t>
+  </si>
+  <si>
+    <t>9787108038081</t>
+  </si>
+  <si>
+    <t>9787108036469</t>
+  </si>
+  <si>
+    <t>9787108036650</t>
+  </si>
+  <si>
+    <t>9787108036667</t>
+  </si>
+  <si>
+    <t>9787108036827</t>
+  </si>
+  <si>
+    <t>9787108037299</t>
+  </si>
+  <si>
+    <t>9787108037626</t>
+  </si>
+  <si>
+    <t>9787108037961</t>
+  </si>
+  <si>
+    <t>9787108038111</t>
+  </si>
+  <si>
+    <t>9787108037947</t>
+  </si>
+  <si>
+    <t>9787108036988</t>
+  </si>
+  <si>
+    <t>9787108037190</t>
+  </si>
+  <si>
+    <t>9787108037220</t>
+  </si>
+  <si>
+    <t>9787108037527</t>
+  </si>
+  <si>
+    <t>9787108037534</t>
+  </si>
+  <si>
+    <t>9787108037619</t>
+  </si>
+  <si>
+    <t>9787108037787</t>
+  </si>
+  <si>
+    <t>9787108037800</t>
+  </si>
+  <si>
+    <t>9787108037848</t>
+  </si>
+  <si>
+    <t>9787108037954</t>
+  </si>
+  <si>
+    <t>9787108038005</t>
+  </si>
+  <si>
+    <t>9787108038050</t>
+  </si>
+  <si>
+    <t>9787108038074</t>
+  </si>
+  <si>
+    <t>9787108037930</t>
+  </si>
+  <si>
+    <t>9787108038012</t>
+  </si>
+  <si>
+    <t>9787108037701</t>
+  </si>
+  <si>
+    <t>9787108037916</t>
+  </si>
+  <si>
+    <t>9787108037923</t>
+  </si>
+  <si>
+    <t>9787108038319</t>
+  </si>
+  <si>
+    <t>9787108038456</t>
+  </si>
+  <si>
+    <t>9787108037091</t>
+  </si>
+  <si>
+    <t>9787108037886</t>
+  </si>
+  <si>
+    <t>9787108038036</t>
+  </si>
+  <si>
+    <t>9787108038142</t>
+  </si>
+  <si>
+    <t>9787108038180</t>
+  </si>
+  <si>
+    <t>9787108038227</t>
+  </si>
+  <si>
+    <t>9787108038395</t>
+  </si>
+  <si>
+    <t>9787108038401</t>
+  </si>
+  <si>
+    <t>9787108038432</t>
+  </si>
+  <si>
+    <t>9787108039217</t>
+  </si>
+  <si>
+    <t>9787108039590</t>
+  </si>
+  <si>
+    <t>9787108039651</t>
+  </si>
+  <si>
+    <t>9787108039668</t>
+  </si>
+  <si>
+    <t>9787108037763</t>
+  </si>
+  <si>
+    <t>9787108037992</t>
+  </si>
+  <si>
+    <t>9787108038128</t>
+  </si>
+  <si>
+    <t>9787108038135</t>
+  </si>
+  <si>
+    <t>9787108038333</t>
+  </si>
+  <si>
+    <t>9787108038340</t>
+  </si>
+  <si>
+    <t>9787108038357</t>
+  </si>
+  <si>
+    <t>9787108039125</t>
+  </si>
+  <si>
+    <t>9787108039156</t>
+  </si>
+  <si>
+    <t>9787108039163</t>
+  </si>
+  <si>
+    <t>9787108039200</t>
+  </si>
+  <si>
+    <t>9787108039675</t>
+  </si>
+  <si>
+    <t>9787108039774</t>
+  </si>
+  <si>
+    <t>9787108037541</t>
+  </si>
+  <si>
+    <t>9787108039644</t>
+  </si>
+  <si>
+    <t>9787108032249</t>
+  </si>
+  <si>
+    <t>9787108037985</t>
+  </si>
+  <si>
+    <t>9787108038197</t>
+  </si>
+  <si>
+    <t>9787108038203</t>
+  </si>
+  <si>
+    <t>9787108038210</t>
+  </si>
+  <si>
+    <t>9787108039187</t>
+  </si>
+  <si>
+    <t>9787108039620</t>
+  </si>
+  <si>
+    <t>9787108038241</t>
+  </si>
+  <si>
+    <t>9787108038258</t>
+  </si>
+  <si>
+    <t>9787108039224</t>
+  </si>
+  <si>
+    <t>9787108039637</t>
+  </si>
+  <si>
+    <t>9787108038272</t>
+  </si>
+  <si>
+    <t>9787108039132</t>
+  </si>
+  <si>
+    <t>9787108037336</t>
+  </si>
+  <si>
+    <t>9787108038067</t>
+  </si>
+  <si>
+    <t>9787108039743</t>
+  </si>
+  <si>
+    <t>9787108039811</t>
+  </si>
+  <si>
+    <t>9787108037732</t>
+  </si>
+  <si>
+    <t>9787108037831</t>
+  </si>
+  <si>
+    <t>9787108040107</t>
+  </si>
+  <si>
+    <t>9787108036803</t>
+  </si>
+  <si>
+    <t>9787108038173</t>
+  </si>
+  <si>
+    <t>9787108038364</t>
+  </si>
+  <si>
+    <t>9787108038388</t>
+  </si>
+  <si>
+    <t>9787108039170</t>
+  </si>
+  <si>
+    <t>9787108039712</t>
+  </si>
+  <si>
+    <t>9787108037909</t>
+  </si>
+  <si>
+    <t>9787108039781</t>
+  </si>
+  <si>
+    <t>9787108034953</t>
+  </si>
+  <si>
+    <t>9787108036308</t>
+  </si>
+  <si>
+    <t>9787108036513</t>
+  </si>
+  <si>
+    <t>9787108036834</t>
+  </si>
+  <si>
+    <t>9787108037657</t>
+  </si>
+  <si>
+    <t>9787108037749</t>
+  </si>
+  <si>
+    <t>9787108037978</t>
+  </si>
+  <si>
+    <t>9787108038289</t>
+  </si>
+  <si>
+    <t>9787108038296</t>
+  </si>
+  <si>
+    <t>9787108038302</t>
+  </si>
+  <si>
+    <t>9787108038425</t>
+  </si>
+  <si>
+    <t>9787108038449</t>
+  </si>
+  <si>
+    <t>9787108038463</t>
+  </si>
+  <si>
+    <t>9787108039699</t>
+  </si>
+  <si>
+    <t>9787108039729</t>
+  </si>
+  <si>
+    <t>9787108039750</t>
+  </si>
+  <si>
+    <t>9787108039859</t>
+  </si>
+  <si>
+    <t>9787108039873</t>
+  </si>
+  <si>
+    <t>9787108039941</t>
+  </si>
+  <si>
+    <t>9787108040114</t>
+  </si>
+  <si>
+    <t>9787108040145</t>
+  </si>
+  <si>
+    <t>9787108040183</t>
+  </si>
+  <si>
+    <t>9787108040213</t>
+  </si>
+  <si>
+    <t>9787108040220</t>
+  </si>
+  <si>
+    <t>9787108040152</t>
+  </si>
+  <si>
+    <t>9787108040237</t>
+  </si>
+  <si>
+    <t>9787108040497</t>
+  </si>
+  <si>
+    <t>9787108035035</t>
+  </si>
+  <si>
+    <t>9787108038166</t>
+  </si>
+  <si>
+    <t>9787108039736</t>
+  </si>
+  <si>
+    <t>9787108038029</t>
+  </si>
+  <si>
+    <t>9787108039118</t>
+  </si>
+  <si>
+    <t>9787108039996</t>
+  </si>
+  <si>
+    <t>9787108040336</t>
+  </si>
+  <si>
+    <t>9787108040435</t>
+  </si>
+  <si>
+    <t>9787108039613</t>
+  </si>
+  <si>
+    <t>9787108036209</t>
+  </si>
+  <si>
+    <t>9787108036100</t>
+  </si>
+  <si>
+    <t>9787108036148</t>
+  </si>
+  <si>
+    <t>9787108035967</t>
+  </si>
+  <si>
+    <t>9787108036131</t>
+  </si>
+  <si>
+    <t>9787108035431</t>
+  </si>
+  <si>
+    <t>9787108036322</t>
+  </si>
+  <si>
+    <t>9787108036315</t>
+  </si>
+  <si>
+    <t>9787108034502</t>
+  </si>
+  <si>
+    <t>9787108036599</t>
+  </si>
+  <si>
+    <t>9787108035790</t>
+  </si>
+  <si>
+    <t>9787108034526</t>
+  </si>
+  <si>
+    <t>9787108033673</t>
+  </si>
+  <si>
+    <t>9787108037329</t>
+  </si>
+  <si>
+    <t>9787108038104</t>
+  </si>
+  <si>
+    <t>9787108038043</t>
+  </si>
+  <si>
+    <t>三聯書店</t>
+  </si>
+  <si>
+    <t>HKPL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,6 +2493,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -584,7 +2547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,8 +2555,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,14 +2579,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,11 +2895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -958,6 +2938,9 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
@@ -972,6 +2955,9 @@
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
@@ -986,6 +2972,9 @@
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1167,6 +3156,9 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>159</v>
       </c>
@@ -1181,6 +3173,9 @@
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>159</v>
       </c>
@@ -1195,6 +3190,9 @@
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>159</v>
       </c>
@@ -1223,6 +3221,9 @@
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>159</v>
       </c>
@@ -1265,6 +3266,9 @@
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>159</v>
       </c>
@@ -1293,6 +3297,9 @@
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>159</v>
       </c>
@@ -1307,6 +3314,9 @@
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>159</v>
       </c>
@@ -1321,6 +3331,9 @@
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>159</v>
       </c>
@@ -1335,6 +3348,9 @@
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>159</v>
       </c>
@@ -1349,6 +3365,9 @@
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>159</v>
       </c>
@@ -1391,6 +3410,9 @@
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>159</v>
       </c>
@@ -1419,6 +3441,9 @@
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>159</v>
       </c>
@@ -1489,6 +3514,9 @@
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>159</v>
       </c>
@@ -1531,6 +3559,9 @@
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>159</v>
       </c>
@@ -1545,6 +3576,9 @@
       <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>159</v>
       </c>
@@ -1559,6 +3593,9 @@
       <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>159</v>
       </c>
@@ -1573,6 +3610,9 @@
       <c r="B44" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>159</v>
       </c>
@@ -2557,6 +4597,4598 @@
         <v>159</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E442" s="1" t="s">
         <v>157</v>
       </c>
     </row>
